--- a/src/main/resources/datatest/QuanLySuKienB2B.xlsx
+++ b/src/main/resources/datatest/QuanLySuKienB2B.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000"/>
+    <workbookView windowWidth="23040" windowHeight="9000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ThemSuKienB2B" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="55">
   <si>
     <t>No.</t>
   </si>
@@ -91,7 +91,7 @@
     <t>9.SetText Tên sự kiện field</t>
   </si>
   <si>
-    <t>Sự Kiện B2B Tháng 7 Lần I</t>
+    <t>Sự Kiện Yến Sào Khánh Hòa</t>
   </si>
   <si>
     <t>10.Select on Ngày diễn ra</t>
@@ -131,6 +131,71 @@
   </si>
   <si>
     <t>Thao tác thành công</t>
+  </si>
+  <si>
+    <t>Xóa Sự Kiện B2B</t>
+  </si>
+  <si>
+    <t>7.Select on Sự kiện muốn xóa</t>
+  </si>
+  <si>
+    <t>8.Click icon del</t>
+  </si>
+  <si>
+    <t>9.Show popup</t>
+  </si>
+  <si>
+    <t>10.Click "Xóa" button</t>
+  </si>
+  <si>
+    <t>11.Verify Notification Message Text</t>
+  </si>
+  <si>
+    <t>Chỉnh sửa Sự Kiện B2B</t>
+  </si>
+  <si>
+    <t>7.Select on Sự kiện muốn Edit</t>
+  </si>
+  <si>
+    <t>8.Click "pencil" icon</t>
+  </si>
+  <si>
+    <t>9.Edit Name Sự kiện</t>
+  </si>
+  <si>
+    <t>Sự Kiện Yến Sào Khánh Hòa Lần I</t>
+  </si>
+  <si>
+    <t>10.Edit Ngày diễn ra</t>
+  </si>
+  <si>
+    <t>11.Edit Thời gian bắt đầu</t>
+  </si>
+  <si>
+    <t>12.Edit Thời gian kết thúc</t>
+  </si>
+  <si>
+    <t>13.Edit Tỉnh/Thành phố</t>
+  </si>
+  <si>
+    <t>14.Edit Địa điểm</t>
+  </si>
+  <si>
+    <t>Bình Định</t>
+  </si>
+  <si>
+    <t>15.Edit Mô tả ngắn</t>
+  </si>
+  <si>
+    <t>Thành phố Quy Nhơn</t>
+  </si>
+  <si>
+    <t>16.Edit Giới thiệu chung</t>
+  </si>
+  <si>
+    <t>Bình Định – nơi truyền thống thượng võ từ lâu đã thấm sâu vào trong máu thịt người dân 
+và trở thành bản sắc riêng của Bình Định trên bản đồ du lịch Việt Nam. 
+Nhắc đến võ thuật, nhắc đến miền đất võ Bình Định.</t>
   </si>
 </sst>
 </file>
@@ -143,7 +208,7 @@
     <numFmt numFmtId="176" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* \-??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -179,12 +244,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -536,7 +595,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -576,7 +635,24 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -588,17 +664,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -617,24 +682,9 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right style="thin">
         <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -646,22 +696,11 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -769,152 +808,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -931,8 +970,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -941,25 +1000,26 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1437,8 +1497,8 @@
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="$A19:$XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="5"/>
@@ -1470,212 +1530,212 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:6">
-      <c r="A2" s="15">
+      <c r="A2" s="23">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
-      <c r="A3" s="16"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8" t="s">
+      <c r="A3" s="23"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="24" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
-      <c r="A4" s="16"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8" t="s">
+      <c r="A4" s="23"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="16">
         <v>123456</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
-      <c r="A5" s="16"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="8"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" customHeight="1" spans="1:6">
-      <c r="A6" s="16"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8" t="s">
+      <c r="A6" s="23"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="8"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" customHeight="1" spans="1:6">
-      <c r="A7" s="16"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12" t="s">
+      <c r="A7" s="23"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="11"/>
+      <c r="F7" s="26"/>
     </row>
     <row r="8" customHeight="1" spans="1:6">
-      <c r="A8" s="16"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12" t="s">
+      <c r="A8" s="23"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="11"/>
+      <c r="F8" s="26"/>
     </row>
     <row r="9" customHeight="1" spans="1:6">
-      <c r="A9" s="16"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12" t="s">
+      <c r="A9" s="23"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="11"/>
+      <c r="F9" s="26"/>
     </row>
     <row r="10" customHeight="1" spans="1:6">
-      <c r="A10" s="16"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12" t="s">
+      <c r="A10" s="23"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="27" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
-      <c r="A11" s="16"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12" t="s">
+      <c r="A11" s="23"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="11"/>
+      <c r="F11" s="26"/>
     </row>
     <row r="12" customHeight="1" spans="1:6">
-      <c r="A12" s="16"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12" t="s">
+      <c r="A12" s="23"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="11"/>
+      <c r="F12" s="26"/>
     </row>
     <row r="13" customHeight="1" spans="1:6">
-      <c r="A13" s="16"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12" t="s">
+      <c r="A13" s="23"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="11"/>
+      <c r="F13" s="26"/>
     </row>
     <row r="14" customHeight="1" spans="1:6">
-      <c r="A14" s="16"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="12" t="s">
+      <c r="A14" s="23"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="11"/>
+      <c r="F14" s="26"/>
     </row>
     <row r="15" customHeight="1" spans="1:6">
-      <c r="A15" s="16"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="12" t="s">
+      <c r="A15" s="23"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="27" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:6">
-      <c r="A16" s="16"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="12" t="s">
+      <c r="A16" s="23"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="27" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:6">
-      <c r="A17" s="16"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="12" t="s">
+      <c r="A17" s="23"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="27" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:6">
-      <c r="A18" s="18"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12" t="s">
+      <c r="A18" s="23"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="11"/>
+      <c r="F18" s="26"/>
     </row>
     <row r="19" customHeight="1" spans="1:6">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20" t="s">
+      <c r="A19" s="23"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="29" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A18"/>
+    <mergeCell ref="A2:A19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" display="https://saigon-business.erp.meu-solutions.com/dang-nhap"/>
@@ -1692,7 +1752,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F7"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelCol="5"/>
@@ -1700,7 +1760,7 @@
     <col min="3" max="3" width="23.2222222222222" customWidth="1"/>
     <col min="4" max="4" width="26.7777777777778" customWidth="1"/>
     <col min="5" max="5" width="43.4444444444444" customWidth="1"/>
-    <col min="6" max="6" width="111" customWidth="1"/>
+    <col min="6" max="6" width="52.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1727,119 +1787,151 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="16" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="16">
         <v>123456</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="8"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="8"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="14"/>
-      <c r="B9" s="13"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="13"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="14"/>
-      <c r="B11" s="13"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="13"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="3"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="3"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="14"/>
-      <c r="B13" s="13"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="22"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="14"/>
-      <c r="B14" s="13"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="22"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="14"/>
-      <c r="B15" s="13"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="22"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="14"/>
-      <c r="B16" s="13"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="22"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="13"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A2:A12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" display="https://saigon-business.erp.meu-solutions.com/dang-nhap"/>
@@ -1852,19 +1944,19 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="16.3333333333333" customWidth="1"/>
     <col min="3" max="3" width="27.2222222222222" customWidth="1"/>
     <col min="4" max="4" width="32.3333333333333" customWidth="1"/>
     <col min="5" max="5" width="46.2222222222222" customWidth="1"/>
-    <col min="6" max="6" width="55.5555555555556" customWidth="1"/>
+    <col min="6" max="6" width="75.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1898,7 +1990,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>9</v>
@@ -1908,62 +2000,192 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="6">
         <v>123456</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="8"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="8"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="11"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="3"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="3"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="3"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="3"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="3"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" ht="39.6" spans="1:6">
+      <c r="A17" s="3"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="3"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="3"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A2:A19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" display="https://saigon-business.erp.meu-solutions.com/dang-nhap"/>
